--- a/downloads/Template.xlsx
+++ b/downloads/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\CELL_Block_Manager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\CELL_Block_Manager\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24E6413E-E409-4217-A8B3-46BCB062EC16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9334BBC2-E978-4414-81A0-A975217FE7DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{7C1CD805-3218-4001-A288-BECE5999DFD8}"/>
+    <workbookView xWindow="348" yWindow="348" windowWidth="10728" windowHeight="6600" xr2:uid="{7C1CD805-3218-4001-A288-BECE5999DFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>Site Name</t>
   </si>
   <si>
-    <t>BSC/RNC</t>
+    <t>Technology</t>
   </si>
 </sst>
 </file>
@@ -443,14 +443,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="57" customWidth="1"/>
   </cols>

--- a/downloads/Template.xlsx
+++ b/downloads/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\CELL_Block_Manager\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9334BBC2-E978-4414-81A0-A975217FE7DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E131520-EA28-4742-9CED-BC860DBBEC60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="348" windowWidth="10728" windowHeight="6600" xr2:uid="{7C1CD805-3218-4001-A288-BECE5999DFD8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{7C1CD805-3218-4001-A288-BECE5999DFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Reason</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Technology</t>
+  </si>
+  <si>
+    <t>Request Type</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FEC5CE-6E5E-4639-8F99-D05BEE4E33AC}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,7 +458,7 @@
     <col min="5" max="5" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -468,18 +471,23 @@
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
